--- a/grizly/docs/sales_fields.xlsx
+++ b/grizly/docs/sales_fields.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pln60fs100\TE_KRK\ACOE\Internal\4_Docs\Python\Kasia\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TE386850\grizly\grizly\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8491726-0E63-411E-9837-2DCDBEB00EA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C65D84-8B7D-4B61-8BCC-A55B295E0B62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{8CE05998-01E6-42BF-865C-AC66D0867D33}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>column</t>
   </si>
@@ -110,9 +110,6 @@
     <t>Sales_Positive</t>
   </si>
   <si>
-    <t>CASE WHEN Sales&gt;0 THEN 1 ELSE 0 END</t>
-  </si>
-  <si>
     <t>count</t>
   </si>
   <si>
@@ -120,6 +117,12 @@
   </si>
   <si>
     <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>CASE WHEN Sales &gt; 0 THEN 1 ELSE 0 END</t>
   </si>
 </sst>
 </file>
@@ -784,24 +787,24 @@
   <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.28515625" style="23" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>13</v>
       </c>
@@ -844,7 +847,9 @@
         <v>9</v>
       </c>
       <c r="D2" s="11"/>
-      <c r="E2" s="10"/>
+      <c r="E2" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="F2" s="11"/>
       <c r="G2" s="19"/>
       <c r="H2" s="11"/>
@@ -864,7 +869,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>18</v>
@@ -922,7 +927,9 @@
         <v>9</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="F6" s="5" t="s">
         <v>11</v>
       </c>
@@ -968,7 +975,7 @@
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="6"/>
@@ -1002,13 +1009,13 @@
         <v>9</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E10" s="43" t="s">
         <v>25</v>
       </c>
       <c r="F10" s="43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" s="43"/>
       <c r="H10" s="43"/>
